--- a/Sprint-8/Product Backlog-Burndown.xlsx
+++ b/Sprint-8/Product Backlog-Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sprint-7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao11\Sprint-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -480,6 +480,30 @@
   </si>
   <si>
     <t>Criar Método para Copiar  Arquivo para o Sistema</t>
+  </si>
+  <si>
+    <t>É necessário fazer as atualizações da documentação do software, para que esteja de acordo com o código escrito</t>
+  </si>
+  <si>
+    <t>Os documentos devem estar atualizados para servirem de referência ao código e usabilidade do software</t>
+  </si>
+  <si>
+    <t>Atualizar Levantamento de Requisitos</t>
+  </si>
+  <si>
+    <t>Atualizar Caso de Uso</t>
+  </si>
+  <si>
+    <t>Atualizar Classes de View</t>
+  </si>
+  <si>
+    <t>Atualizar Classes Model</t>
+  </si>
+  <si>
+    <t>Atualizar Classes Controller</t>
+  </si>
+  <si>
+    <t>Atualizar relacionamentos das classes</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:E71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3531,191 +3555,197 @@
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
+    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F73" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F74" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="F75" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F77" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="25"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="F78" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="F80" s="6">
-        <v>5</v>
-      </c>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F81" s="6">
-        <v>5</v>
-      </c>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2</v>
-      </c>
-      <c r="E82" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F82" s="6">
-        <v>5</v>
-      </c>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F83" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>139</v>
-      </c>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3737,9 +3767,9 @@
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -3748,89 +3778,228 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="6"/>
+      <c r="A94" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F94" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="6"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F95" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F96" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C98" s="6"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A59:A64"/>
+  <mergeCells count="37">
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="A73:A78"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:F1"/>
@@ -3844,7 +4013,28 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4105,15 +4295,15 @@
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>347.65670000000006</v>
+        <v>338.80670000000003</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>347.65670000000006</v>
+        <v>338.80670000000003</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>347.65670000000006</v>
+        <v>338.80670000000003</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -4223,7 +4413,7 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="K9" s="15">
         <f>SUMIF('Product Backlog'!F:F,9,'Product Backlog'!E:E)</f>
@@ -4235,11 +4425,11 @@
       </c>
       <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>152.3433</v>
+        <v>161.19329999999999</v>
       </c>
       <c r="N9" s="15">
         <f>M9/10</f>
-        <v>15.23433</v>
+        <v>16.119329999999998</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -4254,11 +4444,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -4271,6 +4456,11 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/Sprint-8/Product Backlog-Burndown.xlsx
+++ b/Sprint-8/Product Backlog-Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao11\Sprint-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\ProjetoOriginal\adocao\Sprint-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Criar Tela Cadastro Adm</t>
   </si>
   <si>
-    <t>Para gerenciar o sistema, o administrador deverá fazer o login com seus dados</t>
-  </si>
-  <si>
-    <t>A tela de login será apresentada ao entrar no software. O login é uma necessidade apenas para administradores.</t>
-  </si>
-  <si>
     <t>Criar classe sessao</t>
   </si>
   <si>
@@ -437,12 +431,6 @@
     <t>Criar model Adoção</t>
   </si>
   <si>
-    <t>Se precisa manter atualizado todos os documentos do software</t>
-  </si>
-  <si>
-    <t>Atualizar levantamento de requisitos, diagrama de classe, casos de uso</t>
-  </si>
-  <si>
     <t>Criar controller Formulário de Adoção</t>
   </si>
   <si>
@@ -504,6 +492,45 @@
   </si>
   <si>
     <t>Atualizar relacionamentos das classes</t>
+  </si>
+  <si>
+    <t>É necessário implementar uma opção para visualização do relatório, ou seja tudo que foi realizado dentro do sistema e quem realizou.</t>
+  </si>
+  <si>
+    <t>O administrador irá possuir a opção de recuperação de senha e poderá editar e visualizar seus dados dentro do sistema</t>
+  </si>
+  <si>
+    <t>Criar Classe Sessão</t>
+  </si>
+  <si>
+    <t>Criar Tela DadosAdm</t>
+  </si>
+  <si>
+    <t>Modificações e Correções de Bugs</t>
+  </si>
+  <si>
+    <t>Mesclar Model e View e Tratar o ControllerMenu</t>
+  </si>
+  <si>
+    <t>Será implementado no sistema a recuperação da senha de acesso através de uma característica do administrador, como também a visualização da sessão de acesso ao sistema.</t>
+  </si>
+  <si>
+    <t>O team vai revisar o sistema por completo em busca de bugs, como também refatorar código se necessário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificação Tela DetalheAdoção </t>
+  </si>
+  <si>
+    <t>Modificação cadastro Administrador</t>
+  </si>
+  <si>
+    <t>Bug na Alteração dos Dados dos Candidatos</t>
+  </si>
+  <si>
+    <t>Bug na Visualização dos Candidatos e Adoções</t>
+  </si>
+  <si>
+    <t>Criar Método de Busca e Alteração dos Dados dos Adm</t>
   </si>
 </sst>
 </file>
@@ -513,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -613,6 +640,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -676,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -780,12 +813,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,28 +939,55 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1875,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:A78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2967,7 +3038,7 @@
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -3049,13 +3120,13 @@
     </row>
     <row r="43" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -3071,7 +3142,7 @@
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -3087,7 +3158,7 @@
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
@@ -3101,13 +3172,13 @@
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D46" s="5">
         <v>0.5</v>
@@ -3123,7 +3194,7 @@
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
@@ -3139,7 +3210,7 @@
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
@@ -3153,13 +3224,13 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>114</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -3175,7 +3246,7 @@
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -3191,7 +3262,7 @@
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="5">
         <v>1.5</v>
@@ -3205,13 +3276,13 @@
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -3227,7 +3298,7 @@
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="5">
         <v>3</v>
@@ -3243,7 +3314,7 @@
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
@@ -3257,13 +3328,13 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
@@ -3279,7 +3350,7 @@
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
@@ -3295,7 +3366,7 @@
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -3311,7 +3382,7 @@
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
@@ -3331,7 +3402,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="5">
         <v>0.5</v>
@@ -3347,7 +3418,7 @@
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -3363,7 +3434,7 @@
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D61" s="5">
         <v>1.5</v>
@@ -3379,7 +3450,7 @@
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" s="5">
         <v>4</v>
@@ -3395,7 +3466,7 @@
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
@@ -3411,7 +3482,7 @@
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D64" s="5">
         <v>0.8</v>
@@ -3425,13 +3496,13 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -3447,7 +3518,7 @@
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D66" s="5">
         <v>4</v>
@@ -3463,7 +3534,7 @@
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D67" s="5">
         <v>1</v>
@@ -3479,7 +3550,7 @@
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
@@ -3493,13 +3564,13 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
@@ -3515,7 +3586,7 @@
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
@@ -3531,7 +3602,7 @@
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
@@ -3543,33 +3614,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>154</v>
-      </c>
+    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F72" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D73" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="F73" s="6">
         <v>8</v>
@@ -3579,13 +3654,13 @@
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D74" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5">
-        <v>0.85</v>
+        <v>2.4</v>
       </c>
       <c r="F74" s="6">
         <v>8</v>
@@ -3595,13 +3670,13 @@
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E75" s="5">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="F75" s="6">
         <v>8</v>
@@ -3611,133 +3686,199 @@
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D76" s="5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F76" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D77" s="5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E77" s="5">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="F77" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="C78" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" s="5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="5">
-        <v>3.1</v>
+        <v>0.36</v>
       </c>
       <c r="F78" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="F79" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F80" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F81" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="F82" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="53"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F83" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="53"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="F84" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="55"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="F85" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="50"/>
       <c r="C86" s="6"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="6"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="6"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3767,185 +3908,179 @@
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="25"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="F94" s="6">
-        <v>5</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="5">
-        <v>2</v>
-      </c>
-      <c r="E95" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F95" s="6">
-        <v>5</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="5">
-        <v>2</v>
-      </c>
-      <c r="E96" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F96" s="6">
-        <v>5</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" s="5">
-        <v>2</v>
-      </c>
-      <c r="E97" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F97" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
+    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
+      <c r="A100" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="5">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="6"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F101" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="6"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="5">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F102" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="25"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="6"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3967,39 +4102,108 @@
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="6"/>
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A73:A78"/>
+  <mergeCells count="43">
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A72:A77"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:F1"/>
@@ -4014,27 +4218,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4048,7 +4231,7 @@
   </sheetPr>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -4070,20 +4253,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="1"/>
@@ -4098,40 +4281,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="43" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1"/>
@@ -4146,18 +4329,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4295,15 +4478,15 @@
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>338.80670000000003</v>
+        <v>328.76670000000007</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>338.80670000000003</v>
+        <v>328.76670000000007</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>338.80670000000003</v>
+        <v>328.76670000000007</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -4345,22 +4528,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4379,10 +4562,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="41">
+      <c r="A9" s="46">
         <v>50</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>35</v>
@@ -4413,7 +4596,7 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
-        <v>8.85</v>
+        <v>18.89</v>
       </c>
       <c r="K9" s="15">
         <f>SUMIF('Product Backlog'!F:F,9,'Product Backlog'!E:E)</f>
@@ -4425,11 +4608,11 @@
       </c>
       <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>161.19329999999999</v>
+        <v>171.23329999999999</v>
       </c>
       <c r="N9" s="15">
         <f>M9/10</f>
-        <v>16.119329999999998</v>
+        <v>17.123329999999999</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -4444,6 +4627,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -4458,9 +4644,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
